--- a/NatesThoughtsOnFactTables.xlsx
+++ b/NatesThoughtsOnFactTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanialziegler/Documents/GitHub/CS5200Practicum2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816E894-CC88-0242-9DDA-89CD330D70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D9311-59CD-2B44-9C94-7D53F397DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FD0AB487-54FC-924D-8A72-33D5C186EE19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Hss Journal : The Musculoskeletal Journal Of Hospital For Special Surgery</t>
   </si>
@@ -144,12 +144,6 @@
     <t>Author_ID</t>
   </si>
   <si>
-    <t>Num_Articles</t>
-  </si>
-  <si>
-    <t>Time_Period</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -198,24 +192,9 @@
     <t>O</t>
   </si>
   <si>
-    <t>2012 - Q1</t>
-  </si>
-  <si>
-    <t>2012 - Q2</t>
-  </si>
-  <si>
-    <t>2012 - Q3</t>
-  </si>
-  <si>
-    <t>2012 - Q4</t>
-  </si>
-  <si>
     <t>Fact PK</t>
   </si>
   <si>
-    <t>Dim_Time</t>
-  </si>
-  <si>
     <t>Dim_Author</t>
   </si>
   <si>
@@ -223,6 +202,30 @@
   </si>
   <si>
     <t>Fact_Table</t>
+  </si>
+  <si>
+    <t>Dim_Year</t>
+  </si>
+  <si>
+    <t>Dim_Quarter</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Num_Articles_Published</t>
+  </si>
+  <si>
+    <t>Avg_Days_Submission_Publication</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,33 +603,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941A271F-2A2D-D744-992D-394E004C9092}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -631,507 +643,493 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="5">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <v>7</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G16" s="1">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G21" s="1">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
         <v>9</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G23" s="1">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="J32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
         <v>10</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
         <v>11</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G24" s="1">
-        <v>6</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="J34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
         <v>12</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="1">
         <v>13</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G25" s="1">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="J36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="1">
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I38" s="1">
         <v>15</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="1">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="J38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
         <v>16</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G27" s="1">
-        <v>9</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="1">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G30" s="1">
-        <v>12</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="1">
-        <v>13</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="1">
-        <v>14</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="1">
-        <v>15</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="1">
-        <v>16</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="1">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>38</v>
+      <c r="L39" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/NatesThoughtsOnFactTables.xlsx
+++ b/NatesThoughtsOnFactTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanialziegler/Documents/GitHub/CS5200Practicum2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D9311-59CD-2B44-9C94-7D53F397DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE88E0-F0F3-B94B-88CB-6FE8B4CB76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FD0AB487-54FC-924D-8A72-33D5C186EE19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Hss Journal : The Musculoskeletal Journal Of Hospital For Special Surgery</t>
   </si>
@@ -192,9 +192,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>Fact PK</t>
-  </si>
-  <si>
     <t>Dim_Author</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>Avg_Days_Submission_Publication</t>
+  </si>
+  <si>
+    <t>Num_Articles_With_Revisions</t>
+  </si>
+  <si>
+    <t>Fact_PK</t>
   </si>
 </sst>
 </file>
@@ -603,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941A271F-2A2D-D744-992D-394E004C9092}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,14 +619,15 @@
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -631,10 +635,11 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -643,23 +648,26 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -669,14 +677,15 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="1">
+      <c r="H3" s="1"/>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -686,14 +695,15 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" s="1">
+      <c r="H4" s="1"/>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -703,14 +713,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="1">
+      <c r="H5" s="1"/>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -720,8 +731,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -731,12 +743,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -746,14 +759,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" s="1">
+      <c r="H8" s="1"/>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -763,51 +777,49 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="1">
+      <c r="H9" s="1"/>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="5">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="5">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="5">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="1">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
         <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>36</v>
@@ -815,91 +827,91 @@
       <c r="L15" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="1">
+      <c r="M15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I17" s="1">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I18" s="1">
+    <row r="18" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I19" s="1">
+    <row r="19" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
-      <c r="J20" s="1" t="s">
+    <row r="20" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="2"/>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I23" s="1">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="1">
         <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>36</v>
@@ -907,228 +919,231 @@
       <c r="L23" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I24" s="1">
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I25" s="1">
+    <row r="25" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I26" s="1">
+      <c r="M25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I27" s="1">
+      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="1">
         <v>4</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I28" s="1">
-        <v>5</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="M27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I29" s="1">
+      <c r="M28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J29" s="1">
         <v>6</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I30" s="1">
+      <c r="M29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J30" s="1">
         <v>7</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I31" s="1">
+      <c r="M30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J31" s="1">
         <v>8</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="1">
+      <c r="M31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J32" s="1">
         <v>9</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I33" s="1">
+      <c r="M32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J33" s="1">
         <v>10</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I34" s="1">
+      <c r="M33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J34" s="1">
         <v>11</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I35" s="1">
+      <c r="M34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J35" s="1">
         <v>12</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I36" s="1">
+      <c r="M35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J36" s="1">
         <v>13</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I37" s="1">
+      <c r="M36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J37" s="1">
         <v>14</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I38" s="1">
+      <c r="M37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J38" s="1">
         <v>15</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I39" s="1">
+      <c r="M38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J39" s="1">
         <v>16</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/NatesThoughtsOnFactTables.xlsx
+++ b/NatesThoughtsOnFactTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanialziegler/Documents/GitHub/CS5200Practicum2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE88E0-F0F3-B94B-88CB-6FE8B4CB76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7693872E-4FBC-4D4B-8390-4D1CBF6A7A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FD0AB487-54FC-924D-8A72-33D5C186EE19}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,11 +671,21 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="1">
